--- a/data/conversations.xlsx
+++ b/data/conversations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,6 +501,72 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-07 18:23:03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>what is the latest order status</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sorry, we couldn't find the data you are looking for.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>06fc6f1c-b0d6-41e6-99cb-2b8d15cd6517</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-08 04:52:47</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>50505050 what is the status of this order?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sorry, we couldn't find the data you are looking for.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>05b33037-9bf4-43a3-92e4-abe06b5888ca</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-08 05:48:51</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>when</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>The last order was placed on July 21, 2025, at 7:42 PM.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>476673f7-a8f3-4702-87e8-274746541b1d</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/conversations.xlsx
+++ b/data/conversations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,6 +567,116 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-13 14:38:01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>what is the total number of orders in july</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8926 orders in July.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5b5b4eaa-0cb2-4eab-a958-dac0b2da8b2e</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-10-13 15:14:06</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>total number of canceled orders in july</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Total number of canceled orders in July: 257.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0c47e2e6-2890-43fb-be0c-dfaf620e22fe</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-10-13 15:14:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>in august</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sorry, we couldn't find the data you are looking for.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0c47e2e6-2890-43fb-be0c-dfaf620e22fe</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-10-13 15:20:06</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>total number of canceled orders in july</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sorry, we couldn't find the data you are looking for.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0c47e2e6-2890-43fb-be0c-dfaf620e22fe</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-10-13 15:22:01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>total number of canceled orders in july</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Total number of canceled orders in July: 257.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0c47e2e6-2890-43fb-be0c-dfaf620e22fe</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/conversations.xlsx
+++ b/data/conversations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +677,50 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-10-14 11:17:31</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>total number of orders in september</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14,216 orders were processed in September.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>57065d93-bb31-449c-a8e9-6d1967adec01</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-10-14 11:18:52</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>my cancelled orders</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>910 orders were cancelled in September.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>57065d93-bb31-449c-a8e9-6d1967adec01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/conversations.xlsx
+++ b/data/conversations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,6 +721,248 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-10-14 15:10:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Can I get the details of the order created on 2025-07-21 at 19:12:34?</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sorry, we couldn't find the data you are looking for.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>57065d93-bb31-449c-a8e9-6d1967adec01</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-10-14 15:11:31</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Can I get the details of the order created on 2025-07-21 at 19:12:34?</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No orders found for Dominos Pizza at 2025-07-21 19:12:34.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>57065d93-bb31-449c-a8e9-6d1967adec01</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-10-14 15:14:08</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>how many orders was completed in sep 30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>452 orders were completed on September 30.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>57065d93-bb31-449c-a8e9-6d1967adec01</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-10-14 15:15:06</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cont me the orders that have a cancellation reason filled.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>12,336 orders have cancellation reasons recorded.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>57065d93-bb31-449c-a8e9-6d1967adec01</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-10-14 15:15:49</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>What is the final status timestamp of my last order?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-09-30 at 23:54:03</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>57065d93-bb31-449c-a8e9-6d1967adec01</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-10-14 15:19:09</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Can I see number of all orders that were returned?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>136 orders were returned.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>57065d93-bb31-449c-a8e9-6d1967adec01</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-10-14 15:19:34</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>which months were these returned</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>July orders were returned.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>57065d93-bb31-449c-a8e9-6d1967adec01</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-10-14 15:20:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>orders returned in septmeber</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10 orders were returned in September from Dominos Pizza.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>57065d93-bb31-449c-a8e9-6d1967adec01</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-10-14 15:23:50</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>orders returned in septmeber</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0 orders were returned in September.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>57065d93-bb31-449c-a8e9-6d1967adec01</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-10-14 15:24:56</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>how many orders were returned in september</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>56 orders were returned in September.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>57065d93-bb31-449c-a8e9-6d1967adec01</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-10-14 16:18:55</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>how many orders were returned in september</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>56 orders were returned in September.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>57065d93-bb31-449c-a8e9-6d1967adec01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
